--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A842E282-39E2-491C-9A0B-7CD1ED8D7087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8004" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo Database" sheetId="2" r:id="rId1"/>
     <sheet name="Package EF" sheetId="4" r:id="rId2"/>
     <sheet name="DBContext" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -54,9 +48,6 @@
     <t>File bat sửa mấy đường dẫn với port, password</t>
   </si>
   <si>
-    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=14051634;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project Demo.CoreData -OutputDir ..\Demo.CoreData\Models -ContextDir ..\Demo.CoreData\DbContext -Context DemoDbContext -f -d</t>
-  </si>
-  <si>
     <t>Install-Package System.Data.SqlClient</t>
   </si>
   <si>
@@ -82,13 +73,22 @@
   </si>
   <si>
     <t>Install-Package Microsoft.EntityFrameworkCore.Proxies</t>
+  </si>
+  <si>
+    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=14051634;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project Demo.CoreData -OutputDir ..\Demo.CoreData\Models -ContextDir ..\Demo.CoreData -Context DemoDbContext -f -d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,7 +100,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,18 +108,341 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -127,12 +450,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -143,29 +705,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -181,19 +786,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -229,19 +828,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -277,19 +870,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -325,19 +912,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -373,19 +954,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -421,19 +996,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -469,19 +1038,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -517,19 +1080,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -565,19 +1122,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -853,19 +1404,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A182"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="Q189" sqref="Q189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -919,95 +1470,100 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45414DD7-C1D5-4056-8EF9-09233D81241C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB535C9-D21F-46FD-9D8F-9502ADDA7A88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>https://www.microsoft.com/en-us/sql-server/sql-server-downloads</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=14051634;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project Demo.CoreData -OutputDir ..\Demo.CoreData\Models -ContextDir ..\Demo.CoreData -Context DemoDbContext -f -d</t>
+  </si>
+  <si>
+    <t>.UseLazyLoadingProxies().ConfigureWarnings(warnings =&gt; warnings.Ignore(CoreEventId.DetachedLazyLoadingWarning));</t>
   </si>
 </sst>
 </file>
@@ -83,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,38 +100,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,22 +140,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,13 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -180,9 +161,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +185,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -205,37 +232,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,181 +253,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,15 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -510,15 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,12 +526,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,127 +567,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,10 +698,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1549,17 +1545,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\crawl-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50341FC6-4135-4D74-B228-80BF9F5DDB97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo Database" sheetId="2" r:id="rId1"/>
@@ -75,23 +81,17 @@
     <t>Install-Package Microsoft.EntityFrameworkCore.Proxies</t>
   </si>
   <si>
-    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=14051634;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project Demo.CoreData -OutputDir ..\Demo.CoreData\Models -ContextDir ..\Demo.CoreData -Context DemoDbContext -f -d</t>
-  </si>
-  <si>
     <t>.UseLazyLoadingProxies().ConfigureWarnings(warnings =&gt; warnings.Ignore(CoreEventId.DetachedLazyLoadingWarning));</t>
+  </si>
+  <si>
+    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project Demo.CoreData -OutputDir ..\Demo.CoreData\Models -ContextDir ..\Demo.CoreData\Common -Context DemoDbContext -f -d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,338 +107,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -446,251 +124,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,72 +140,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -782,13 +178,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -824,13 +226,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -866,13 +274,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -908,13 +322,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -950,13 +370,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -992,13 +418,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1034,13 +466,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1076,13 +514,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1118,13 +562,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1400,19 +850,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A182"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q189" sqref="Q189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1466,21 +916,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1524,12 +972,12 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,34 +985,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\crawl-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9C743B-E3C8-4A06-BC09-31664C3F4E2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACD736-A4A3-43B5-8D10-6E3339D574A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Package EF" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>.UseLazyLoadingProxies().ConfigureWarnings(warnings =&gt; warnings.Ignore(CoreEventId.DetachedLazyLoadingWarning));</t>
   </si>
   <si>
-    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project Demo.CoreData -OutputDir ..\Demo.CoreData\Models -ContextDir ..\Demo.CoreData\Common -Context DemoDbContext -f -d</t>
+    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project Demo.CoreData -OutputDir ..\Demo.CoreData\Models -ContextDir ..\Demo.CoreData\Entities -Context DemoDbContext -f -d</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -459,9 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\crawl-project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACD736-A4A3-43B5-8D10-6E3339D574A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Package EF" sheetId="4" r:id="rId1"/>
@@ -50,17 +44,23 @@
     <t>Install-Package Microsoft.EntityFrameworkCore.Proxies</t>
   </si>
   <si>
-    <t>.UseLazyLoadingProxies().ConfigureWarnings(warnings =&gt; warnings.Ignore(CoreEventId.DetachedLazyLoadingWarning));</t>
+    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project JSN.CoreData -OutputDir ..\JSN.CoreData\Models -ContextDir ..\JSN.CoreData\Entities -Context DemoDbContext -f -d</t>
   </si>
   <si>
-    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project Demo.CoreData -OutputDir ..\Demo.CoreData\Models -ContextDir ..\Demo.CoreData\Entities -Context DemoDbContext -f -d</t>
+    <t>.UseLazyLoadingProxies().ConfigureWarnings(warnings =&gt; warnings.Ignore(CoreEventId.DetachedLazyLoadingWarning));</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +76,338 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,12 +415,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -109,22 +670,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -382,19 +986,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -438,12 +1042,12 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -451,29 +1055,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\crawl-project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF85C7D-C01B-47AC-B210-676F63D57FA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Package EF" sheetId="4" r:id="rId1"/>
@@ -50,20 +44,26 @@
     <t>Install-Package Microsoft.EntityFrameworkCore.Proxies</t>
   </si>
   <si>
-    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project JSN.CoreData -OutputDir ..\JSN.CoreData\Models -ContextDir ..\JSN.CoreData\Entities -Context DemoDbContext -f -d</t>
+    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project JSN.CoreData -OutputDir ..\JSN.CoreData\Models -ContextDir ..\JSN.CoreData\Entities -Context JSNDbContext -f -d</t>
+  </si>
+  <si>
+    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project JSN.CoreData -OutputDir ..\JSN.CoreData\ModelsNew -ContextDir ..\JSN.CoreData\EntitiesNews -Context DemoDbContext -f -d</t>
   </si>
   <si>
     <t>.UseLazyLoadingProxies().ConfigureWarnings(warnings =&gt; warnings.Ignore(CoreEventId.DetachedLazyLoadingWarning));</t>
-  </si>
-  <si>
-    <t>Scaffold-DbContext "Server=localhost,1433;User ID=sa;Password=1405;TrustServerCertificate=True;Initial Catalog=CoreData;" Microsoft.EntityFrameworkCore.SqlServer -Project JSN.CoreData -OutputDir ..\JSN.CoreData\ModelsNew -ContextDir ..\JSN.CoreData\EntitiesNews -Context DemoDbContext -f -d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +79,338 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,12 +418,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -112,22 +673,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -385,19 +989,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -441,12 +1045,12 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -454,19 +1058,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -475,15 +1081,16 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>